--- a/medicine/Psychotrope/Edmond_Bartissol/Edmond_Bartissol.xlsx
+++ b/medicine/Psychotrope/Edmond_Bartissol/Edmond_Bartissol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Edmond Bartissol, né le 20 décembre 1841 à Portel (Aude) et mort le 16 août 1916 à Paris[1], est un homme politique français[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Edmond Bartissol, né le 20 décembre 1841 à Portel (Aude) et mort le 16 août 1916 à Paris, est un homme politique français.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ingénieur des travaux publics, il participe au percement du canal de Suez en 1866. En 1874, il participe à la construction de chemins de fer en Espagne et au Portugal et à la construction du métro de Lisbonne.
-Il est député des Pyrénées-Orientales de 1889 à 1893, siégeant avec les républicains modérés. Battu par Jules Pams en 1893, il se présente en 1898 dans l'Aude, s'affirmant partisan d'un grand port à Narbonne[3]. Il est élu de justesse, puis invalidé. Devenu maire de Fleury-Mérogis, il retrouve un siège de député des Pyrénées-Orientales de 1902 à 1910, siégeant chez les Républicains progressistes[4].
-En 1904, il créa avec des moyens importants à Banyuls-sur-Mer le vin doux naturel qui porte son nom, le Bartissol[5].
-Financièrement, il a diversifié ses nombreuses affaires en créant diverses sociétés sans jamais créer une holding et en déléguant ses pouvoirs[6].
-Au Brésil, en 1909-1910, il monte une société pour l'agrandissement du port de Pernambouc[7].
+Il est député des Pyrénées-Orientales de 1889 à 1893, siégeant avec les républicains modérés. Battu par Jules Pams en 1893, il se présente en 1898 dans l'Aude, s'affirmant partisan d'un grand port à Narbonne. Il est élu de justesse, puis invalidé. Devenu maire de Fleury-Mérogis, il retrouve un siège de député des Pyrénées-Orientales de 1902 à 1910, siégeant chez les Républicains progressistes.
+En 1904, il créa avec des moyens importants à Banyuls-sur-Mer le vin doux naturel qui porte son nom, le Bartissol.
+Financièrement, il a diversifié ses nombreuses affaires en créant diverses sociétés sans jamais créer une holding et en déléguant ses pouvoirs.
+Au Brésil, en 1909-1910, il monte une société pour l'agrandissement du port de Pernambouc.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Officier de la Légion d'honneur (11 mai 1914).</t>
         </is>
